--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_171.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_171.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.92, 22.62)]</t>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>[('0:01:08.640000', '0:01:17.380000'), ('0:00:16.820000', '0:00:23.180000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -528,577 +534,602 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1165689149560117</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab:7', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(94.88, 97.74)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.155, 20.379)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1196581196581196</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2158018867924528</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C', 'G']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.978, 26.66)]</t>
+          <t>[['D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(101.849092, 109.476848)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:19.708503', '0:00:25.501882')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1671087533156499</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E'], ['B', 'E', 'B']]</t>
-        </is>
+          <t>isophonics_30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09304511278195488</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#', 'E', 'B'], ['F#', 'B', 'F#']]</t>
+          <t>[['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.537346, 8.504874), (46.272131, 52.17)]</t>
+          <t>[['A:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(59.041587, 66.994421), (152.583174, 156.565396)]</t>
+          <t>[('0:00:02.385936', '0:00:06.194008')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:01:00.898000', '0:01:07.056000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_276</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1441647597254004</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1868131868131868</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_44</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(148.857891, 153.176802)]</t>
+          <t>[['Ab:7', 'Db', 'Db']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.5, 26.2)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:03:44.580000', '0:03:52.160000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:46.990000', '0:00:49.500000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(42.62, 45.06)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.675</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.56, 16.28)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(81.28, 89.42)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03942307692307692</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min', 'C:min', 'D:hdim7/C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min'], ['F:min', 'F:min', 'G:hdim7'], ['F:min', 'C', 'F:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(24.54, 29.42), (16.38, 22.86), (14.08, 18.4)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.46, 59.63), (51.29, 55.46), (0.6, 5.9)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02376591662305948</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.84, 16.56)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.81, 10.51)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05042372881355933</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.55, 15.79)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(282.12, 284.72)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>schubert-winterreise_26</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Db', 'Db', 'Db:7']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(44.18, 54.59)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(22.947687, 29.809183)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(165.14, 168.7)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(4.34, 18.1)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.284457, 20.438561)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
